--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Хмель Х-КПНн-500-16</t>
+  </si>
+  <si>
+    <t>X-KПНв.2-500-14 (NRW)</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -253,6 +256,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Контрольная ячейка" xfId="1" builtinId="23"/>
@@ -260,11 +266,15 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -276,14 +286,11 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -586,25 +593,25 @@
     <tableColumn id="2" name="Столбец2" dataDxfId="13"/>
     <tableColumn id="3" name="Столбец3" dataDxfId="12"/>
     <tableColumn id="4" name="Столбец4" dataDxfId="11"/>
-    <tableColumn id="5" name="Столбец5" dataDxfId="10">
-      <calculatedColumnFormula>ROUND(C7*D7+D7*$E$3+$E$2, 0)</calculatedColumnFormula>
+    <tableColumn id="5" name="Столбец5" dataDxfId="0">
+      <calculatedColumnFormula>ROUND(C7*D7+(D7+1)*$E$3+$E$2, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Столбец9" dataDxfId="9"/>
-    <tableColumn id="10" name="Столбец10" dataDxfId="8"/>
-    <tableColumn id="11" name="Столбец11" dataDxfId="7"/>
-    <tableColumn id="12" name="Столбец12" dataDxfId="6"/>
-    <tableColumn id="13" name="Столбец13" dataDxfId="5">
+    <tableColumn id="9" name="Столбец9" dataDxfId="10"/>
+    <tableColumn id="10" name="Столбец10" dataDxfId="9"/>
+    <tableColumn id="11" name="Столбец11" dataDxfId="8"/>
+    <tableColumn id="12" name="Столбец12" dataDxfId="7"/>
+    <tableColumn id="13" name="Столбец13" dataDxfId="6">
       <calculatedColumnFormula>F7*G7+H7*I7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Столбец14" dataDxfId="4"/>
-    <tableColumn id="15" name="Столбец15" dataDxfId="3">
+    <tableColumn id="14" name="Столбец14" dataDxfId="5"/>
+    <tableColumn id="15" name="Столбец15" dataDxfId="4">
       <calculatedColumnFormula>J7*K7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Столбец17" dataDxfId="2"/>
-    <tableColumn id="18" name="Столбец18" dataDxfId="1">
+    <tableColumn id="17" name="Столбец17" dataDxfId="3"/>
+    <tableColumn id="18" name="Столбец18" dataDxfId="2">
       <calculatedColumnFormula>L7*M7/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Столбец19" dataDxfId="0">
+    <tableColumn id="19" name="Столбец19" dataDxfId="1">
       <calculatedColumnFormula>N7+34</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -905,7 +912,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,8 +1047,8 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <f t="shared" ref="E7:E47" si="0">ROUND(C7*D7+D7*$E$3+$E$2, 0)</f>
-        <v>145</v>
+        <f t="shared" ref="E7:E47" si="0">ROUND(C7*D7+(D7+1)*$E$3+$E$2, 0)</f>
+        <v>148</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1076,7 +1083,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1111,7 +1118,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1146,7 +1153,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1181,7 +1188,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1216,7 +1223,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1256,8 +1263,8 @@
         <v>7</v>
       </c>
       <c r="E13" s="3">
-        <f>ROUND(C13*D13+D13*$E$3+$E$2, 0)</f>
-        <v>1860</v>
+        <f t="shared" si="0"/>
+        <v>1863</v>
       </c>
       <c r="F13" s="3">
         <v>17</v>
@@ -1300,7 +1307,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1335,7 +1342,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1370,7 +1377,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1405,7 +1412,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1440,7 +1447,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1475,7 +1482,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1505,34 +1512,48 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3">
+        <v>260</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+        <v>2252</v>
+      </c>
+      <c r="F20" s="3">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3">
+        <v>17</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="K20" s="3">
+        <v>8</v>
+      </c>
       <c r="L20" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>2312</v>
+      </c>
+      <c r="M20" s="3">
+        <v>340</v>
+      </c>
       <c r="N20" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>786.08</v>
       </c>
       <c r="O20" s="5">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>820.08</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1545,7 +1566,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1586,7 +1607,7 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="F22" s="3">
         <v>17</v>
@@ -1633,7 +1654,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1668,7 +1689,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1703,7 +1724,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1738,7 +1759,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1773,7 +1794,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1808,7 +1829,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1843,7 +1864,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1878,7 +1899,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1913,7 +1934,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1954,7 +1975,7 @@
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1989,7 +2010,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2024,7 +2045,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2059,7 +2080,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2094,7 +2115,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2135,7 +2156,7 @@
       </c>
       <c r="E37" s="3">
         <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="F37" s="3">
         <v>17</v>
@@ -2180,7 +2201,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2215,7 +2236,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -2250,7 +2271,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -2285,7 +2306,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -2320,7 +2341,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2355,7 +2376,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -2390,7 +2411,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2425,7 +2446,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2460,7 +2481,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2501,7 +2522,7 @@
       </c>
       <c r="E47" s="3">
         <f t="shared" si="0"/>
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="F47" s="3">
         <v>16</v>

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -266,26 +266,6 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -454,6 +434,26 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -593,25 +593,25 @@
     <tableColumn id="2" name="Столбец2" dataDxfId="13"/>
     <tableColumn id="3" name="Столбец3" dataDxfId="12"/>
     <tableColumn id="4" name="Столбец4" dataDxfId="11"/>
-    <tableColumn id="5" name="Столбец5" dataDxfId="0">
+    <tableColumn id="5" name="Столбец5" dataDxfId="10">
       <calculatedColumnFormula>ROUND(C7*D7+(D7+1)*$E$3+$E$2, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Столбец9" dataDxfId="10"/>
-    <tableColumn id="10" name="Столбец10" dataDxfId="9"/>
-    <tableColumn id="11" name="Столбец11" dataDxfId="8"/>
-    <tableColumn id="12" name="Столбец12" dataDxfId="7"/>
-    <tableColumn id="13" name="Столбец13" dataDxfId="6">
+    <tableColumn id="9" name="Столбец9" dataDxfId="9"/>
+    <tableColumn id="10" name="Столбец10" dataDxfId="8"/>
+    <tableColumn id="11" name="Столбец11" dataDxfId="7"/>
+    <tableColumn id="12" name="Столбец12" dataDxfId="6"/>
+    <tableColumn id="13" name="Столбец13" dataDxfId="5">
       <calculatedColumnFormula>F7*G7+H7*I7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Столбец14" dataDxfId="5"/>
-    <tableColumn id="15" name="Столбец15" dataDxfId="4">
+    <tableColumn id="14" name="Столбец14" dataDxfId="4"/>
+    <tableColumn id="15" name="Столбец15" dataDxfId="3">
       <calculatedColumnFormula>J7*K7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Столбец17" dataDxfId="3"/>
-    <tableColumn id="18" name="Столбец18" dataDxfId="2">
+    <tableColumn id="17" name="Столбец17" dataDxfId="2"/>
+    <tableColumn id="18" name="Столбец18" dataDxfId="1">
       <calculatedColumnFormula>L7*M7/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Столбец19" dataDxfId="1">
+    <tableColumn id="19" name="Столбец19" dataDxfId="0">
       <calculatedColumnFormula>N7+34</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -912,7 +912,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,11 +1519,11 @@
         <v>260</v>
       </c>
       <c r="D20" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>2252</v>
+        <v>1989</v>
       </c>
       <c r="F20" s="3">
         <v>17</v>

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -912,7 +912,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,22 +1538,22 @@
         <v>289</v>
       </c>
       <c r="K20" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="2"/>
-        <v>2312</v>
+        <v>2023</v>
       </c>
       <c r="M20" s="3">
         <v>340</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" si="3"/>
-        <v>786.08</v>
+        <v>687.82</v>
       </c>
       <c r="O20" s="5">
         <f t="shared" si="6"/>
-        <v>820.08</v>
+        <v>721.82</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>X-KПНв.2-500-14 (NRW)</t>
+  </si>
+  <si>
+    <t>Х-КПНн-500-15 (ВВ 500 ml с эмбоссингом "Златы Базант")</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -259,6 +262,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Контрольная ячейка" xfId="1" builtinId="23"/>
@@ -266,7 +275,8 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -277,13 +287,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -296,13 +304,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -315,13 +321,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -334,13 +338,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -353,13 +355,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -372,13 +372,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -391,13 +389,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -410,13 +406,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -429,13 +423,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -448,14 +440,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -468,13 +458,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -487,13 +475,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -506,12 +492,10 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -524,8 +508,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -909,16 +891,16 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
     <col min="3" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="15" width="12.85546875" customWidth="1"/>
   </cols>
@@ -1044,31 +1026,31 @@
         <v>1</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
         <f t="shared" ref="E7:E47" si="0">ROUND(C7*D7+(D7+1)*$E$3+$E$2, 0)</f>
         <v>148</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
         <f t="shared" ref="J7:J47" si="1">F7*G7+H7*I7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8">
         <f t="shared" ref="L7:L47" si="2">J7*K7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8">
         <f t="shared" ref="N7:N47" si="3">L7*M7/1000</f>
         <v>0</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="9">
         <f t="shared" ref="O7:O12" si="4">N7+34</f>
         <v>34</v>
       </c>
@@ -1079,31 +1061,31 @@
         <v>2</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -1114,31 +1096,31 @@
         <v>3</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -1149,31 +1131,31 @@
         <v>4</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -1184,31 +1166,31 @@
         <v>5</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -1219,31 +1201,31 @@
         <v>6</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -1256,43 +1238,43 @@
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>242</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="8">
         <v>7</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="8">
         <v>17</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="8">
         <v>16</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8">
         <f>F13*G13+H13*I13</f>
         <v>272</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="8">
         <v>7</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="8">
         <f>J13*K13</f>
         <v>1904</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="8">
         <v>345</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="8">
         <f t="shared" si="3"/>
         <v>656.88</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="9">
         <f>N13+34</f>
         <v>690.88</v>
       </c>
@@ -1303,31 +1285,31 @@
         <v>8</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
         <f t="shared" ref="O14:O47" si="6">N14+34</f>
         <v>34</v>
       </c>
@@ -1338,31 +1320,31 @@
         <v>9</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1373,31 +1355,31 @@
         <v>10</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1408,31 +1390,31 @@
         <v>11</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1443,31 +1425,31 @@
         <v>12</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1478,31 +1460,31 @@
         <v>13</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1515,43 +1497,43 @@
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="8">
         <v>260</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="8">
         <v>7</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="8">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="8">
         <v>17</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="8">
         <v>17</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8">
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="8">
         <v>7</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="8">
         <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="8">
         <v>340</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="8">
         <f t="shared" si="3"/>
         <v>687.82</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="9">
         <f t="shared" si="6"/>
         <v>721.82</v>
       </c>
@@ -1561,34 +1543,48 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="6"/>
-        <v>34</v>
+      <c r="B21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="8">
+        <v>258</v>
+      </c>
+      <c r="D21" s="8">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>1975</v>
+      </c>
+      <c r="F21" s="8">
+        <v>17</v>
+      </c>
+      <c r="G21" s="8">
+        <v>17</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="K21" s="8">
+        <v>7</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="M21" s="8">
+        <v>330</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="3"/>
+        <v>667.59</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="6"/>
+        <v>701.59</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1599,47 +1595,47 @@
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="8">
         <v>258</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="8">
         <v>7</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="8">
         <f t="shared" si="0"/>
         <v>1975</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="8">
         <v>17</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="8">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="8">
         <v>16</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="8">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="8">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="8">
         <v>7</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="8">
         <f t="shared" si="2"/>
         <v>1848</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="8">
         <v>330</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="8">
         <f t="shared" si="3"/>
         <v>609.84</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="9">
         <f t="shared" si="6"/>
         <v>643.84</v>
       </c>
@@ -1650,31 +1646,31 @@
         <v>17</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="5">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1685,31 +1681,31 @@
         <v>18</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="5">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1720,31 +1716,31 @@
         <v>19</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="5">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1755,31 +1751,31 @@
         <v>20</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="5">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1790,31 +1786,31 @@
         <v>21</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="5">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1825,31 +1821,31 @@
         <v>22</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="5">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1860,31 +1856,31 @@
         <v>23</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="5">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1895,31 +1891,31 @@
         <v>24</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="5">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1930,31 +1926,31 @@
         <v>25</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1967,35 +1963,35 @@
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="8">
         <v>269.60000000000002</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="8">
         <v>7</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="8">
         <f t="shared" si="0"/>
         <v>2056</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="5">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2006,31 +2002,31 @@
         <v>27</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="5">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2041,31 +2037,31 @@
         <v>28</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="5">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2076,31 +2072,31 @@
         <v>29</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="5">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2111,31 +2107,31 @@
         <v>30</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="5">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2148,45 +2144,45 @@
       <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="8">
         <v>242</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="8">
         <v>7</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="8">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="8">
         <v>17</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="8">
         <v>8</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="8">
         <v>16</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="8">
         <v>8</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="8">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="8">
         <v>7</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="8">
         <f t="shared" si="2"/>
         <v>1848</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="5">
+      <c r="M37" s="8"/>
+      <c r="N37" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2197,31 +2193,31 @@
         <v>32</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="5">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2232,31 +2228,31 @@
         <v>33</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2267,31 +2263,31 @@
         <v>34</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="5">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2302,31 +2298,31 @@
         <v>35</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="5">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2337,31 +2333,31 @@
         <v>36</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="5">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2372,31 +2368,31 @@
         <v>37</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="5">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2407,31 +2403,31 @@
         <v>38</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="5">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2442,31 +2438,31 @@
         <v>39</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="5">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2477,31 +2473,31 @@
         <v>40</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="5">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="9">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -2514,47 +2510,47 @@
       <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="8">
         <v>280</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="8">
         <v>7</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="8">
         <f t="shared" si="0"/>
         <v>2129</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="8">
         <v>16</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="8">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="8">
         <v>15</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="8">
         <v>7</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="8">
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="8">
         <v>7</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="8">
         <f t="shared" si="2"/>
         <v>1631</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="8">
         <v>420</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="8">
         <f t="shared" si="3"/>
         <v>685.02</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="9">
         <f t="shared" si="6"/>
         <v>719.02</v>
       </c>

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Х-КПНн-500-15 (ВВ 500 ml с эмбоссингом "Златы Базант")</t>
+  </si>
+  <si>
+    <t>Х-КПНв.4-500-29 (LONG-NECK ALIVA)</t>
   </si>
 </sst>
 </file>
@@ -891,10 +894,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,34 +2074,48 @@
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="8">
+        <v>270</v>
+      </c>
+      <c r="D35" s="8">
+        <v>7</v>
+      </c>
       <c r="E35" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+        <v>2059</v>
+      </c>
+      <c r="F35" s="8">
+        <v>17</v>
+      </c>
+      <c r="G35" s="8">
+        <v>16</v>
+      </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="K35" s="8">
+        <v>7</v>
+      </c>
       <c r="L35" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="8"/>
+        <v>1904</v>
+      </c>
+      <c r="M35" s="8">
+        <v>355</v>
+      </c>
       <c r="N35" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>675.92</v>
       </c>
       <c r="O35" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>709.92</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Х-КПНв.4-500-29 (LONG-NECK ALIVA)</t>
+  </si>
+  <si>
+    <t>Х-ВКП-450-3 (EMERALD)</t>
   </si>
 </sst>
 </file>
@@ -894,10 +897,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,34 +1101,48 @@
         <f t="shared" ref="A9:A47" si="5">A8+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8">
+        <v>249</v>
+      </c>
+      <c r="D9" s="8">
+        <v>7</v>
+      </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+        <v>1912</v>
+      </c>
+      <c r="F9" s="8">
+        <v>17</v>
+      </c>
+      <c r="G9" s="8">
+        <v>17</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="8"/>
+        <v>289</v>
+      </c>
+      <c r="K9" s="8">
+        <v>7</v>
+      </c>
       <c r="L9" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="8"/>
+        <v>2023</v>
+      </c>
+      <c r="M9" s="8">
+        <v>320</v>
+      </c>
       <c r="N9" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>647.36</v>
       </c>
       <c r="O9" s="9">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>681.36</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Х-ВКП-450-3 (EMERALD)</t>
+  </si>
+  <si>
+    <t>22. Х-КПНн-500-22 Amber</t>
   </si>
 </sst>
 </file>
@@ -897,10 +900,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,34 +1843,52 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="8">
+        <v>246.5</v>
+      </c>
+      <c r="D28" s="8">
+        <v>8</v>
+      </c>
       <c r="E28" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+        <v>2144</v>
+      </c>
+      <c r="F28" s="8">
+        <v>17</v>
+      </c>
+      <c r="G28" s="8">
+        <v>8</v>
+      </c>
+      <c r="H28" s="8">
+        <v>16</v>
+      </c>
+      <c r="I28" s="8">
+        <v>8</v>
+      </c>
       <c r="J28" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="K28" s="8">
+        <v>8</v>
+      </c>
       <c r="L28" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="8"/>
+        <v>2112</v>
+      </c>
+      <c r="M28" s="8">
+        <v>340</v>
+      </c>
       <c r="N28" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>718.08</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>752.08</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -903,7 +903,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>22. Х-КПНн-500-22 Amber</t>
+  </si>
+  <si>
+    <t>Х-КПВ.5-500-4 (Slavutich)</t>
   </si>
 </sst>
 </file>
@@ -900,10 +903,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,34 +1156,48 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="8">
+        <v>249</v>
+      </c>
+      <c r="D10" s="8">
+        <v>7</v>
+      </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+        <v>1912</v>
+      </c>
+      <c r="F10" s="8">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8">
+        <v>16</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="K10" s="8">
+        <v>7</v>
+      </c>
       <c r="L10" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="8"/>
+        <v>1904</v>
+      </c>
+      <c r="M10" s="8">
+        <v>345</v>
+      </c>
       <c r="N10" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>656.88</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>690.88</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Х-КПВ.5-500-4 (Slavutich)</t>
+  </si>
+  <si>
+    <t>Х-КПНв.2-500-18 (DESANT)</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,34 +1723,48 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="8">
+        <v>264</v>
+      </c>
+      <c r="D24" s="8">
+        <v>8</v>
+      </c>
       <c r="E24" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+        <v>2284</v>
+      </c>
+      <c r="F24" s="8">
+        <v>17</v>
+      </c>
+      <c r="G24" s="8">
+        <v>16</v>
+      </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="K24" s="8">
+        <v>8</v>
+      </c>
       <c r="L24" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="8"/>
+        <v>2176</v>
+      </c>
+      <c r="M24" s="8">
+        <v>340</v>
+      </c>
       <c r="N24" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>739.84</v>
       </c>
       <c r="O24" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>773.84</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Х-КПНв.2-500-18 (DESANT)</t>
+  </si>
+  <si>
+    <t>Х-КПНв.3-500-10 (Special)</t>
   </si>
 </sst>
 </file>
@@ -909,7 +912,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,34 +1400,48 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="8">
+        <v>268</v>
+      </c>
+      <c r="D16" s="8">
+        <v>7</v>
+      </c>
       <c r="E16" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+        <v>2045</v>
+      </c>
+      <c r="F16" s="8">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8">
+        <v>16</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="K16" s="8">
+        <v>7</v>
+      </c>
       <c r="L16" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="8"/>
+        <v>1904</v>
+      </c>
+      <c r="M16" s="8">
+        <v>345</v>
+      </c>
       <c r="N16" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>656.88</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>690.88</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Х-КПНв.3-500-10 (Special)</t>
+  </si>
+  <si>
+    <t>Х-К-700-41 (GRAPE)</t>
+  </si>
+  <si>
+    <t>Х-В-700-37 (GRAPE twist)</t>
   </si>
 </sst>
 </file>
@@ -909,10 +915,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,34 +2339,52 @@
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="B39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="8">
+        <v>280</v>
+      </c>
+      <c r="D39" s="8">
+        <v>7</v>
+      </c>
       <c r="E39" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+        <v>2129</v>
+      </c>
+      <c r="F39" s="8">
+        <v>16</v>
+      </c>
+      <c r="G39" s="8">
+        <v>8</v>
+      </c>
+      <c r="H39" s="8">
+        <v>15</v>
+      </c>
+      <c r="I39" s="8">
+        <v>7</v>
+      </c>
       <c r="J39" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="8"/>
+        <v>233</v>
+      </c>
+      <c r="K39" s="8">
+        <v>7</v>
+      </c>
       <c r="L39" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="8"/>
+        <v>1631</v>
+      </c>
+      <c r="M39" s="8">
+        <v>420</v>
+      </c>
       <c r="N39" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>685.02</v>
       </c>
       <c r="O39" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>719.02</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2473,34 +2497,52 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="8">
+        <v>281</v>
+      </c>
+      <c r="D43" s="8">
+        <v>7</v>
+      </c>
       <c r="E43" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+        <v>2136</v>
+      </c>
+      <c r="F43" s="8">
+        <v>16</v>
+      </c>
+      <c r="G43" s="8">
+        <v>8</v>
+      </c>
+      <c r="H43" s="8">
+        <v>15</v>
+      </c>
+      <c r="I43" s="8">
+        <v>7</v>
+      </c>
       <c r="J43" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="8"/>
+        <v>233</v>
+      </c>
+      <c r="K43" s="8">
+        <v>7</v>
+      </c>
       <c r="L43" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="8"/>
+        <v>1631</v>
+      </c>
+      <c r="M43" s="8">
+        <v>420</v>
+      </c>
       <c r="N43" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>685.02</v>
       </c>
       <c r="O43" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>719.02</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Х-В-700-37 (GRAPE twist)</t>
+  </si>
+  <si>
+    <t>Х-КПНв.3-440-2 (Kof)</t>
   </si>
 </sst>
 </file>
@@ -915,10 +918,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N43" sqref="N43"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,34 +1087,52 @@
         <f>A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="8">
+        <v>221.7</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8</v>
+      </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+        <v>1946</v>
+      </c>
+      <c r="F8" s="8">
+        <v>17</v>
+      </c>
+      <c r="G8" s="8">
+        <v>8</v>
+      </c>
+      <c r="H8" s="8">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
+        <v>8</v>
+      </c>
       <c r="J8" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="K8" s="8">
+        <v>8</v>
+      </c>
       <c r="L8" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="8"/>
+        <v>2112</v>
+      </c>
+      <c r="M8" s="8">
+        <v>320</v>
+      </c>
       <c r="N8" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>675.84</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>709.84</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -921,7 +921,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,11 +1315,11 @@
         <v>242</v>
       </c>
       <c r="D13" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="0"/>
-        <v>1863</v>
+        <v>2108</v>
       </c>
       <c r="F13" s="8">
         <v>17</v>
@@ -1334,22 +1334,22 @@
         <v>272</v>
       </c>
       <c r="K13" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L13" s="8">
         <f>J13*K13</f>
-        <v>1904</v>
+        <v>2176</v>
       </c>
       <c r="M13" s="8">
         <v>345</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="3"/>
-        <v>656.88</v>
+        <v>750.72</v>
       </c>
       <c r="O13" s="9">
         <f>N13+34</f>
-        <v>690.88</v>
+        <v>784.72</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Х-КПНв.3-440-2 (Kof)</t>
+  </si>
+  <si>
+    <t>X-KПНв.5-500-6 (Як для себе)</t>
   </si>
 </sst>
 </file>
@@ -921,7 +924,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,34 +1276,48 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8">
+        <v>247</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8</v>
+      </c>
       <c r="E12" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+        <v>2148</v>
+      </c>
+      <c r="F12" s="8">
+        <v>16</v>
+      </c>
+      <c r="G12" s="8">
+        <v>16</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="8"/>
+        <v>256</v>
+      </c>
+      <c r="K12" s="8">
+        <v>8</v>
+      </c>
       <c r="L12" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="8"/>
+        <v>2048</v>
+      </c>
+      <c r="M12" s="8">
+        <v>320</v>
+      </c>
       <c r="N12" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>655.36</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>689.36</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -924,7 +924,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,15 +1309,15 @@
         <v>2048</v>
       </c>
       <c r="M12" s="8">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="3"/>
-        <v>655.36</v>
+        <v>706.56</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="4"/>
-        <v>689.36</v>
+        <v>740.56</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>X-KПНв.5-500-6 (Як для себе)</t>
+  </si>
+  <si>
+    <t>X-KПНв.5-500-11 (Модерн)</t>
   </si>
 </sst>
 </file>
@@ -924,7 +927,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,34 +1496,48 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="8">
+        <v>264.5</v>
+      </c>
+      <c r="D17" s="8">
+        <v>8</v>
+      </c>
       <c r="E17" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+        <v>2288</v>
+      </c>
+      <c r="F17" s="8">
+        <v>17</v>
+      </c>
+      <c r="G17" s="8">
+        <v>16</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="K17" s="8">
+        <v>8</v>
+      </c>
       <c r="L17" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="8"/>
+        <v>2176</v>
+      </c>
+      <c r="M17" s="8">
+        <v>355</v>
+      </c>
       <c r="N17" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>772.48</v>
       </c>
       <c r="O17" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>806.48</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -167,10 +167,13 @@
     <t>Х-КПНв.3-440-2 (Kof)</t>
   </si>
   <si>
-    <t>X-KПНв.5-500-6 (Як для себе)</t>
-  </si>
-  <si>
     <t>X-KПНв.5-500-11 (Модерн)</t>
+  </si>
+  <si>
+    <t>X-KПНв.5-500-6 (ППБ)</t>
+  </si>
+  <si>
+    <t>Х-КПНн-568 -9 (Pinta)</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1283,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="8">
         <v>247</v>
@@ -1412,34 +1415,48 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="8">
+        <v>282</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7</v>
+      </c>
       <c r="E15" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+        <v>2143</v>
+      </c>
+      <c r="F15" s="8">
+        <v>17</v>
+      </c>
+      <c r="G15" s="8">
+        <v>17</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="8"/>
+        <v>289</v>
+      </c>
+      <c r="K15" s="8">
+        <v>7</v>
+      </c>
       <c r="L15" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="8"/>
+        <v>2023</v>
+      </c>
+      <c r="M15" s="8">
+        <v>360</v>
+      </c>
       <c r="N15" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>728.28</v>
       </c>
       <c r="O15" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>762.28</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1497,7 +1514,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="8">
         <v>264.5</v>

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -930,7 +930,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,14 +1153,14 @@
         <v>40</v>
       </c>
       <c r="C9" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D9" s="8">
         <v>7</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>1912</v>
+        <v>1919</v>
       </c>
       <c r="F9" s="8">
         <v>17</v>

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Х-КПНн-568 -9 (Pinta)</t>
+  </si>
+  <si>
+    <t>Х-В-28-1-500-36 (DESANT wine)</t>
   </si>
 </sst>
 </file>
@@ -927,10 +930,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,34 +2537,48 @@
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="B42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="8">
+        <v>262.5</v>
+      </c>
+      <c r="D42" s="8">
+        <v>7</v>
+      </c>
       <c r="E42" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+        <v>2007</v>
+      </c>
+      <c r="F42" s="8">
+        <v>17</v>
+      </c>
+      <c r="G42" s="8">
+        <v>16</v>
+      </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="K42" s="8">
+        <v>7</v>
+      </c>
       <c r="L42" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="8"/>
+        <v>1904</v>
+      </c>
+      <c r="M42" s="8">
+        <v>340</v>
+      </c>
       <c r="N42" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>647.36</v>
       </c>
       <c r="O42" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>681.36</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Х-В-28-1-500-36 (DESANT wine)</t>
+  </si>
+  <si>
+    <t>Х-КПНв.5-500-12</t>
   </si>
 </sst>
 </file>
@@ -930,10 +933,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,34 +1568,48 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="8">
+        <v>270</v>
+      </c>
+      <c r="D18" s="8">
+        <v>7</v>
+      </c>
       <c r="E18" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+        <v>2059</v>
+      </c>
+      <c r="F18" s="8">
+        <v>17</v>
+      </c>
+      <c r="G18" s="8">
+        <v>16</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="K18" s="8">
+        <v>7</v>
+      </c>
       <c r="L18" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="8"/>
+        <v>1904</v>
+      </c>
+      <c r="M18" s="8">
+        <v>375</v>
+      </c>
       <c r="N18" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -179,7 +179,22 @@
     <t>Х-В-28-1-500-36 (DESANT wine)</t>
   </si>
   <si>
-    <t>Х-КПНв.5-500-12</t>
+    <t>Х-КПНв.3-500-8 (New ALIVARIA)</t>
+  </si>
+  <si>
+    <t>Столбец172</t>
+  </si>
+  <si>
+    <t>Допуски по массе изделия, гр.</t>
+  </si>
+  <si>
+    <t>Х-КПНв.5-500-12 (Long-neck)</t>
+  </si>
+  <si>
+    <t>Столбец182</t>
+  </si>
+  <si>
+    <t>Допуски по весу стекла в паллете, гр.</t>
   </si>
 </sst>
 </file>
@@ -287,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,12 +325,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Контрольная ячейка" xfId="1" builtinId="23"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -608,35 +666,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A6:O47" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A6:O47"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Столбец1" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A6:Q47" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A6:Q47"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Столбец1" dataDxfId="16">
       <calculatedColumnFormula>A6+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Столбец2" dataDxfId="13"/>
-    <tableColumn id="3" name="Столбец3" dataDxfId="12"/>
-    <tableColumn id="4" name="Столбец4" dataDxfId="11"/>
-    <tableColumn id="5" name="Столбец5" dataDxfId="10">
+    <tableColumn id="2" name="Столбец2" dataDxfId="15"/>
+    <tableColumn id="3" name="Столбец3" dataDxfId="14"/>
+    <tableColumn id="4" name="Столбец4" dataDxfId="13"/>
+    <tableColumn id="5" name="Столбец5" dataDxfId="12">
       <calculatedColumnFormula>ROUND(C7*D7+(D7+1)*$E$3+$E$2, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Столбец9" dataDxfId="9"/>
-    <tableColumn id="10" name="Столбец10" dataDxfId="8"/>
-    <tableColumn id="11" name="Столбец11" dataDxfId="7"/>
-    <tableColumn id="12" name="Столбец12" dataDxfId="6"/>
-    <tableColumn id="13" name="Столбец13" dataDxfId="5">
+    <tableColumn id="9" name="Столбец9" dataDxfId="11"/>
+    <tableColumn id="10" name="Столбец10" dataDxfId="10"/>
+    <tableColumn id="11" name="Столбец11" dataDxfId="9"/>
+    <tableColumn id="12" name="Столбец12" dataDxfId="8"/>
+    <tableColumn id="13" name="Столбец13" dataDxfId="7">
       <calculatedColumnFormula>F7*G7+H7*I7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Столбец14" dataDxfId="4"/>
-    <tableColumn id="15" name="Столбец15" dataDxfId="3">
+    <tableColumn id="14" name="Столбец14" dataDxfId="6"/>
+    <tableColumn id="15" name="Столбец15" dataDxfId="5">
       <calculatedColumnFormula>J7*K7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Столбец17" dataDxfId="2"/>
-    <tableColumn id="18" name="Столбец18" dataDxfId="1">
+    <tableColumn id="17" name="Столбец17" dataDxfId="4"/>
+    <tableColumn id="7" name="Столбец172" dataDxfId="1"/>
+    <tableColumn id="18" name="Столбец18" dataDxfId="3">
       <calculatedColumnFormula>L7*M7/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Столбец19" dataDxfId="0">
-      <calculatedColumnFormula>N7+34</calculatedColumnFormula>
+    <tableColumn id="8" name="Столбец182" dataDxfId="0">
+      <calculatedColumnFormula>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="Столбец19" dataDxfId="2">
+      <calculatedColumnFormula>O7+34</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -930,13 +992,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,15 +1006,15 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
     <col min="3" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="15" width="12.85546875" customWidth="1"/>
+    <col min="7" max="17" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -960,7 +1022,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -968,8 +1030,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:15" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1010,13 +1072,19 @@
         <v>14</v>
       </c>
       <c r="N5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -1057,13 +1125,19 @@
         <v>33</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1088,16 +1162,21 @@
         <v>0</v>
       </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="8">
-        <f t="shared" ref="N7:N47" si="3">L7*M7/1000</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <f t="shared" ref="O7:O12" si="4">N7+34</f>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8">
+        <f>L7*M7/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" ref="Q7:Q12" si="3">O7+34</f>
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f>A7+1</f>
         <v>2</v>
@@ -1109,11 +1188,11 @@
         <v>221.7</v>
       </c>
       <c r="D8" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>1946</v>
+        <v>1721</v>
       </c>
       <c r="F8" s="8">
         <v>17</v>
@@ -1132,27 +1211,34 @@
         <v>264</v>
       </c>
       <c r="K8" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="2"/>
-        <v>2112</v>
+        <v>1848</v>
       </c>
       <c r="M8" s="8">
         <v>320</v>
       </c>
       <c r="N8" s="8">
+        <v>15</v>
+      </c>
+      <c r="O8" s="8">
+        <f>L8*M8/1000</f>
+        <v>591.36</v>
+      </c>
+      <c r="P8" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>27.72</v>
+      </c>
+      <c r="Q8" s="9">
         <f t="shared" si="3"/>
-        <v>675.84</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="4"/>
-        <v>709.84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>625.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" ref="A9:A47" si="5">A8+1</f>
+        <f t="shared" ref="A9:A47" si="4">A8+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1190,18 +1276,23 @@
       <c r="M9" s="8">
         <v>320</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="8"/>
+      <c r="O9" s="8">
+        <f>L9*M9/1000</f>
+        <v>647.36</v>
+      </c>
+      <c r="P9" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
         <f t="shared" si="3"/>
-        <v>647.36</v>
-      </c>
-      <c r="O9" s="9">
-        <f t="shared" si="4"/>
         <v>681.36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1239,18 +1330,23 @@
       <c r="M10" s="8">
         <v>345</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="8"/>
+      <c r="O10" s="8">
+        <f>L10*M10/1000</f>
+        <v>656.88</v>
+      </c>
+      <c r="P10" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
         <f t="shared" si="3"/>
-        <v>656.88</v>
-      </c>
-      <c r="O10" s="9">
-        <f t="shared" si="4"/>
         <v>690.88</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B11" s="2"/>
@@ -1274,18 +1370,23 @@
         <v>0</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="8">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8">
+        <f>L11*M11/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <f t="shared" si="4"/>
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1323,18 +1424,23 @@
       <c r="M12" s="8">
         <v>345</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="8"/>
+      <c r="O12" s="8">
+        <f>L12*M12/1000</f>
+        <v>706.56</v>
+      </c>
+      <c r="P12" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
         <f t="shared" si="3"/>
-        <v>706.56</v>
-      </c>
-      <c r="O12" s="9">
-        <f t="shared" si="4"/>
         <v>740.56</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1372,53 +1478,79 @@
       <c r="M13" s="8">
         <v>345</v>
       </c>
-      <c r="N13" s="8">
-        <f t="shared" si="3"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8">
+        <f>L13*M13/1000</f>
         <v>750.72</v>
       </c>
-      <c r="O13" s="9">
-        <f>N13+34</f>
+      <c r="P13" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <f>O13+34</f>
         <v>784.72</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="8">
+        <v>260</v>
+      </c>
+      <c r="D14" s="8">
+        <v>7</v>
+      </c>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+        <v>1989</v>
+      </c>
+      <c r="F14" s="8">
+        <v>17</v>
+      </c>
+      <c r="G14" s="8">
+        <v>16</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="K14" s="8">
+        <v>7</v>
+      </c>
       <c r="L14" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="8"/>
+        <v>1904</v>
+      </c>
+      <c r="M14" s="8">
+        <v>340</v>
+      </c>
       <c r="N14" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <f t="shared" ref="O14:O47" si="6">N14+34</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="O14" s="8">
+        <f>L14*M14/1000</f>
+        <v>647.36</v>
+      </c>
+      <c r="P14" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>19.04</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" ref="Q14:Q47" si="5">O14+34</f>
+        <v>681.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1456,18 +1588,23 @@
       <c r="M15" s="8">
         <v>360</v>
       </c>
-      <c r="N15" s="8">
-        <f t="shared" si="3"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8">
+        <f>L15*M15/1000</f>
         <v>728.28</v>
       </c>
-      <c r="O15" s="9">
-        <f t="shared" si="6"/>
+      <c r="P15" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="5"/>
         <v>762.28</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1505,18 +1642,23 @@
       <c r="M16" s="8">
         <v>345</v>
       </c>
-      <c r="N16" s="8">
-        <f t="shared" si="3"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8">
+        <f>L16*M16/1000</f>
         <v>656.88</v>
       </c>
-      <c r="O16" s="9">
-        <f t="shared" si="6"/>
+      <c r="P16" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="5"/>
         <v>690.88</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1554,22 +1696,27 @@
       <c r="M17" s="8">
         <v>355</v>
       </c>
-      <c r="N17" s="8">
-        <f t="shared" si="3"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8">
+        <f>L17*M17/1000</f>
         <v>772.48</v>
       </c>
-      <c r="O17" s="9">
-        <f t="shared" si="6"/>
+      <c r="P17" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="5"/>
         <v>806.48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C18" s="8">
         <v>270</v>
@@ -1603,18 +1750,23 @@
       <c r="M18" s="8">
         <v>375</v>
       </c>
-      <c r="N18" s="8">
-        <f t="shared" si="3"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8">
+        <f>L18*M18/1000</f>
         <v>714</v>
       </c>
-      <c r="O18" s="9">
-        <f t="shared" si="6"/>
+      <c r="P18" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="5"/>
         <v>748</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B19" s="2"/>
@@ -1638,18 +1790,23 @@
         <v>0</v>
       </c>
       <c r="M19" s="8"/>
-      <c r="N19" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <f t="shared" si="6"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8">
+        <f>L19*M19/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1687,18 +1844,23 @@
       <c r="M20" s="8">
         <v>340</v>
       </c>
-      <c r="N20" s="8">
-        <f t="shared" si="3"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8">
+        <f>L20*M20/1000</f>
         <v>687.82</v>
       </c>
-      <c r="O20" s="9">
-        <f t="shared" si="6"/>
+      <c r="P20" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="5"/>
         <v>721.82</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1736,18 +1898,23 @@
       <c r="M21" s="8">
         <v>330</v>
       </c>
-      <c r="N21" s="8">
-        <f t="shared" si="3"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8">
+        <f>L21*M21/1000</f>
         <v>667.59</v>
       </c>
-      <c r="O21" s="9">
-        <f t="shared" si="6"/>
+      <c r="P21" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="5"/>
         <v>701.59</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1789,18 +1956,23 @@
       <c r="M22" s="8">
         <v>330</v>
       </c>
-      <c r="N22" s="8">
-        <f t="shared" si="3"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8">
+        <f>L22*M22/1000</f>
         <v>609.84</v>
       </c>
-      <c r="O22" s="9">
-        <f t="shared" si="6"/>
+      <c r="P22" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="5"/>
         <v>643.84</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B23" s="2"/>
@@ -1824,18 +1996,23 @@
         <v>0</v>
       </c>
       <c r="M23" s="8"/>
-      <c r="N23" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <f t="shared" si="6"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8">
+        <f>L23*M23/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1873,18 +2050,23 @@
       <c r="M24" s="8">
         <v>340</v>
       </c>
-      <c r="N24" s="8">
-        <f t="shared" si="3"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8">
+        <f>L24*M24/1000</f>
         <v>739.84</v>
       </c>
-      <c r="O24" s="9">
-        <f t="shared" si="6"/>
+      <c r="P24" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="5"/>
         <v>773.84</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B25" s="2"/>
@@ -1908,18 +2090,23 @@
         <v>0</v>
       </c>
       <c r="M25" s="8"/>
-      <c r="N25" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <f t="shared" si="6"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8">
+        <f>L25*M25/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B26" s="2"/>
@@ -1943,18 +2130,23 @@
         <v>0</v>
       </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
-        <f t="shared" si="6"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8">
+        <f>L26*M26/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B27" s="2"/>
@@ -1978,18 +2170,23 @@
         <v>0</v>
       </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="6"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8">
+        <f>L27*M27/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2031,18 +2228,23 @@
       <c r="M28" s="8">
         <v>340</v>
       </c>
-      <c r="N28" s="8">
-        <f t="shared" si="3"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8">
+        <f>L28*M28/1000</f>
         <v>718.08</v>
       </c>
-      <c r="O28" s="9">
-        <f t="shared" si="6"/>
+      <c r="P28" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="5"/>
         <v>752.08</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B29" s="2"/>
@@ -2066,18 +2268,23 @@
         <v>0</v>
       </c>
       <c r="M29" s="8"/>
-      <c r="N29" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="9">
-        <f t="shared" si="6"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8">
+        <f>L29*M29/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B30" s="2"/>
@@ -2101,18 +2308,23 @@
         <v>0</v>
       </c>
       <c r="M30" s="8"/>
-      <c r="N30" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="9">
-        <f t="shared" si="6"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8">
+        <f>L30*M30/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B31" s="2"/>
@@ -2136,18 +2348,23 @@
         <v>0</v>
       </c>
       <c r="M31" s="8"/>
-      <c r="N31" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="9">
-        <f t="shared" si="6"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8">
+        <f>L31*M31/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2177,18 +2394,23 @@
         <v>0</v>
       </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="9">
-        <f t="shared" si="6"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8">
+        <f>L32*M32/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B33" s="2"/>
@@ -2212,18 +2434,23 @@
         <v>0</v>
       </c>
       <c r="M33" s="8"/>
-      <c r="N33" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="9">
-        <f t="shared" si="6"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8">
+        <f>L33*M33/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B34" s="2"/>
@@ -2247,18 +2474,23 @@
         <v>0</v>
       </c>
       <c r="M34" s="8"/>
-      <c r="N34" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <f t="shared" si="6"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8">
+        <f>L34*M34/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2296,18 +2528,23 @@
       <c r="M35" s="8">
         <v>355</v>
       </c>
-      <c r="N35" s="8">
-        <f t="shared" si="3"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8">
+        <f>L35*M35/1000</f>
         <v>675.92</v>
       </c>
-      <c r="O35" s="9">
-        <f t="shared" si="6"/>
+      <c r="P35" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="5"/>
         <v>709.92</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B36" s="2"/>
@@ -2331,18 +2568,23 @@
         <v>0</v>
       </c>
       <c r="M36" s="8"/>
-      <c r="N36" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="9">
-        <f t="shared" si="6"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8">
+        <f>L36*M36/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2382,18 +2624,23 @@
         <v>1848</v>
       </c>
       <c r="M37" s="8"/>
-      <c r="N37" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="9">
-        <f t="shared" si="6"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8">
+        <f>L37*M37/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B38" s="2"/>
@@ -2417,18 +2664,23 @@
         <v>0</v>
       </c>
       <c r="M38" s="8"/>
-      <c r="N38" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="9">
-        <f t="shared" si="6"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8">
+        <f>L38*M38/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2470,18 +2722,23 @@
       <c r="M39" s="8">
         <v>420</v>
       </c>
-      <c r="N39" s="8">
-        <f t="shared" si="3"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8">
+        <f>L39*M39/1000</f>
         <v>685.02</v>
       </c>
-      <c r="O39" s="9">
-        <f t="shared" si="6"/>
+      <c r="P39" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="5"/>
         <v>719.02</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B40" s="2"/>
@@ -2505,18 +2762,23 @@
         <v>0</v>
       </c>
       <c r="M40" s="8"/>
-      <c r="N40" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="9">
-        <f t="shared" si="6"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8">
+        <f>L40*M40/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B41" s="2"/>
@@ -2540,18 +2802,23 @@
         <v>0</v>
       </c>
       <c r="M41" s="8"/>
-      <c r="N41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="9">
-        <f t="shared" si="6"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8">
+        <f>L41*M41/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2589,18 +2856,23 @@
       <c r="M42" s="8">
         <v>340</v>
       </c>
-      <c r="N42" s="8">
-        <f t="shared" si="3"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8">
+        <f>L42*M42/1000</f>
         <v>647.36</v>
       </c>
-      <c r="O42" s="9">
-        <f t="shared" si="6"/>
+      <c r="P42" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" si="5"/>
         <v>681.36</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2642,18 +2914,23 @@
       <c r="M43" s="8">
         <v>420</v>
       </c>
-      <c r="N43" s="8">
-        <f t="shared" si="3"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8">
+        <f>L43*M43/1000</f>
         <v>685.02</v>
       </c>
-      <c r="O43" s="9">
-        <f t="shared" si="6"/>
+      <c r="P43" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9">
+        <f t="shared" si="5"/>
         <v>719.02</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B44" s="2"/>
@@ -2677,18 +2954,23 @@
         <v>0</v>
       </c>
       <c r="M44" s="8"/>
-      <c r="N44" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="9">
-        <f t="shared" si="6"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8">
+        <f>L44*M44/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="B45" s="2"/>
@@ -2712,18 +2994,23 @@
         <v>0</v>
       </c>
       <c r="M45" s="8"/>
-      <c r="N45" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="9">
-        <f t="shared" si="6"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8">
+        <f>L45*M45/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="B46" s="2"/>
@@ -2747,18 +3034,23 @@
         <v>0</v>
       </c>
       <c r="M46" s="8"/>
-      <c r="N46" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="9">
-        <f t="shared" si="6"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8">
+        <f>L46*M46/1000</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2800,12 +3092,17 @@
       <c r="M47" s="8">
         <v>420</v>
       </c>
-      <c r="N47" s="8">
-        <f t="shared" si="3"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8">
+        <f>L47*M47/1000</f>
         <v>685.02</v>
       </c>
-      <c r="O47" s="9">
-        <f t="shared" si="6"/>
+      <c r="P47" s="11">
+        <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9">
+        <f t="shared" si="5"/>
         <v>719.02</v>
       </c>
     </row>

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Допуски по весу стекла в паллете, гр.</t>
+  </si>
+  <si>
+    <t>Х-КПНв.2-500-20 (EURO)</t>
   </si>
 </sst>
 </file>
@@ -338,6 +341,21 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -357,30 +375,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -391,7 +392,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -404,6 +405,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -690,14 +693,14 @@
       <calculatedColumnFormula>J7*K7</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="Столбец17" dataDxfId="4"/>
-    <tableColumn id="7" name="Столбец172" dataDxfId="1"/>
-    <tableColumn id="18" name="Столбец18" dataDxfId="3">
+    <tableColumn id="7" name="Столбец172" dataDxfId="3"/>
+    <tableColumn id="18" name="Столбец18" dataDxfId="2">
       <calculatedColumnFormula>L7*M7/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Столбец182" dataDxfId="0">
+    <tableColumn id="8" name="Столбец182" dataDxfId="1">
       <calculatedColumnFormula>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Столбец19" dataDxfId="2">
+    <tableColumn id="19" name="Столбец19" dataDxfId="0">
       <calculatedColumnFormula>O7+34</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -995,10 +998,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1167,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8">
-        <f>L7*M7/1000</f>
+        <f t="shared" ref="O7:O47" si="3">L7*M7/1000</f>
         <v>0</v>
       </c>
       <c r="P7" s="11">
@@ -1172,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="9">
-        <f t="shared" ref="Q7:Q12" si="3">O7+34</f>
+        <f t="shared" ref="Q7:Q12" si="4">O7+34</f>
         <v>34</v>
       </c>
     </row>
@@ -1224,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="O8" s="8">
-        <f>L8*M8/1000</f>
+        <f t="shared" si="3"/>
         <v>591.36</v>
       </c>
       <c r="P8" s="11">
@@ -1232,13 +1235,13 @@
         <v>27.72</v>
       </c>
       <c r="Q8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>625.36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" ref="A9:A47" si="4">A8+1</f>
+        <f t="shared" ref="A9:A47" si="5">A8+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1278,7 +1281,7 @@
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8">
-        <f>L9*M9/1000</f>
+        <f t="shared" si="3"/>
         <v>647.36</v>
       </c>
       <c r="P9" s="11">
@@ -1286,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>681.36</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1332,7 +1335,7 @@
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8">
-        <f>L10*M10/1000</f>
+        <f t="shared" si="3"/>
         <v>656.88</v>
       </c>
       <c r="P10" s="11">
@@ -1340,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>690.88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B11" s="2"/>
@@ -1372,7 +1375,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8">
-        <f>L11*M11/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P11" s="11">
@@ -1380,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1426,7 +1429,7 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8">
-        <f>L12*M12/1000</f>
+        <f t="shared" si="3"/>
         <v>706.56</v>
       </c>
       <c r="P12" s="11">
@@ -1434,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>740.56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1480,7 +1483,7 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8">
-        <f>L13*M13/1000</f>
+        <f t="shared" si="3"/>
         <v>750.72</v>
       </c>
       <c r="P13" s="11">
@@ -1494,7 +1497,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1536,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="O14" s="8">
-        <f>L14*M14/1000</f>
+        <f t="shared" si="3"/>
         <v>647.36</v>
       </c>
       <c r="P14" s="11">
@@ -1544,13 +1547,13 @@
         <v>19.04</v>
       </c>
       <c r="Q14" s="9">
-        <f t="shared" ref="Q14:Q47" si="5">O14+34</f>
+        <f t="shared" ref="Q14:Q47" si="6">O14+34</f>
         <v>681.36</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1590,7 +1593,7 @@
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8">
-        <f>L15*M15/1000</f>
+        <f t="shared" si="3"/>
         <v>728.28</v>
       </c>
       <c r="P15" s="11">
@@ -1598,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>762.28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1644,7 +1647,7 @@
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8">
-        <f>L16*M16/1000</f>
+        <f t="shared" si="3"/>
         <v>656.88</v>
       </c>
       <c r="P16" s="11">
@@ -1652,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>690.88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1698,7 +1701,7 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8">
-        <f>L17*M17/1000</f>
+        <f t="shared" si="3"/>
         <v>772.48</v>
       </c>
       <c r="P17" s="11">
@@ -1706,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>806.48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1752,7 +1755,7 @@
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8">
-        <f>L18*M18/1000</f>
+        <f t="shared" si="3"/>
         <v>714</v>
       </c>
       <c r="P18" s="11">
@@ -1760,13 +1763,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>748</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B19" s="2"/>
@@ -1792,7 +1795,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8">
-        <f>L19*M19/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P19" s="11">
@@ -1800,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1846,7 +1849,7 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8">
-        <f>L20*M20/1000</f>
+        <f t="shared" si="3"/>
         <v>687.82</v>
       </c>
       <c r="P20" s="11">
@@ -1854,13 +1857,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>721.82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1900,7 +1903,7 @@
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8">
-        <f>L21*M21/1000</f>
+        <f t="shared" si="3"/>
         <v>667.59</v>
       </c>
       <c r="P21" s="11">
@@ -1908,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>701.59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1958,7 +1961,7 @@
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8">
-        <f>L22*M22/1000</f>
+        <f t="shared" si="3"/>
         <v>609.84</v>
       </c>
       <c r="P22" s="11">
@@ -1966,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>643.84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B23" s="2"/>
@@ -1998,7 +2001,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8">
-        <f>L23*M23/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P23" s="11">
@@ -2006,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2052,7 +2055,7 @@
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8">
-        <f>L24*M24/1000</f>
+        <f t="shared" si="3"/>
         <v>739.84</v>
       </c>
       <c r="P24" s="11">
@@ -2060,13 +2063,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>773.84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B25" s="2"/>
@@ -2092,7 +2095,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8">
-        <f>L25*M25/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P25" s="11">
@@ -2100,53 +2103,73 @@
         <v>0</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="8">
+        <v>228</v>
+      </c>
+      <c r="D26" s="8">
+        <v>8</v>
+      </c>
       <c r="E26" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+        <v>1996</v>
+      </c>
+      <c r="F26" s="8">
+        <v>17</v>
+      </c>
+      <c r="G26" s="8">
+        <v>8</v>
+      </c>
+      <c r="H26" s="8">
+        <v>16</v>
+      </c>
+      <c r="I26" s="8">
+        <v>8</v>
+      </c>
       <c r="J26" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="K26" s="8">
+        <v>8</v>
+      </c>
       <c r="L26" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
+        <v>2112</v>
+      </c>
+      <c r="M26" s="8">
+        <v>340</v>
+      </c>
+      <c r="N26" s="8">
+        <v>10</v>
+      </c>
       <c r="O26" s="8">
-        <f>L26*M26/1000</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>718.08</v>
       </c>
       <c r="P26" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>21.12</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" si="5"/>
-        <v>34</v>
+        <f t="shared" si="6"/>
+        <v>752.08</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B27" s="2"/>
@@ -2172,7 +2195,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8">
-        <f>L27*M27/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P27" s="11">
@@ -2180,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2230,7 +2253,7 @@
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8">
-        <f>L28*M28/1000</f>
+        <f t="shared" si="3"/>
         <v>718.08</v>
       </c>
       <c r="P28" s="11">
@@ -2238,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>752.08</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B29" s="2"/>
@@ -2270,7 +2293,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8">
-        <f>L29*M29/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P29" s="11">
@@ -2278,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="Q29" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B30" s="2"/>
@@ -2310,7 +2333,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8">
-        <f>L30*M30/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P30" s="11">
@@ -2318,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B31" s="2"/>
@@ -2350,7 +2373,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8">
-        <f>L31*M31/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P31" s="11">
@@ -2358,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2396,7 +2419,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8">
-        <f>L32*M32/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P32" s="11">
@@ -2404,13 +2427,13 @@
         <v>0</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B33" s="2"/>
@@ -2436,7 +2459,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8">
-        <f>L33*M33/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P33" s="11">
@@ -2444,13 +2467,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B34" s="2"/>
@@ -2476,7 +2499,7 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8">
-        <f>L34*M34/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P34" s="11">
@@ -2484,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="Q34" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2530,7 +2553,7 @@
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8">
-        <f>L35*M35/1000</f>
+        <f t="shared" si="3"/>
         <v>675.92</v>
       </c>
       <c r="P35" s="11">
@@ -2538,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>709.92</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B36" s="2"/>
@@ -2570,7 +2593,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8">
-        <f>L36*M36/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P36" s="11">
@@ -2578,13 +2601,13 @@
         <v>0</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2626,7 +2649,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8">
-        <f>L37*M37/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P37" s="11">
@@ -2634,13 +2657,13 @@
         <v>0</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B38" s="2"/>
@@ -2666,7 +2689,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8">
-        <f>L38*M38/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P38" s="11">
@@ -2674,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2724,7 +2747,7 @@
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8">
-        <f>L39*M39/1000</f>
+        <f t="shared" si="3"/>
         <v>685.02</v>
       </c>
       <c r="P39" s="11">
@@ -2732,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="Q39" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>719.02</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B40" s="2"/>
@@ -2764,7 +2787,7 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8">
-        <f>L40*M40/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P40" s="11">
@@ -2772,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="Q40" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B41" s="2"/>
@@ -2804,7 +2827,7 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8">
-        <f>L41*M41/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P41" s="11">
@@ -2812,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2858,7 +2881,7 @@
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8">
-        <f>L42*M42/1000</f>
+        <f t="shared" si="3"/>
         <v>647.36</v>
       </c>
       <c r="P42" s="11">
@@ -2866,13 +2889,13 @@
         <v>0</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>681.36</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2916,7 +2939,7 @@
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8">
-        <f>L43*M43/1000</f>
+        <f t="shared" si="3"/>
         <v>685.02</v>
       </c>
       <c r="P43" s="11">
@@ -2924,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>719.02</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="B44" s="2"/>
@@ -2956,7 +2979,7 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8">
-        <f>L44*M44/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P44" s="11">
@@ -2964,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="B45" s="2"/>
@@ -2996,7 +3019,7 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8">
-        <f>L45*M45/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P45" s="11">
@@ -3004,13 +3027,13 @@
         <v>0</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="B46" s="2"/>
@@ -3036,7 +3059,7 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8">
-        <f>L46*M46/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P46" s="11">
@@ -3044,13 +3067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3094,7 +3117,7 @@
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="8">
-        <f>L47*M47/1000</f>
+        <f t="shared" si="3"/>
         <v>685.02</v>
       </c>
       <c r="P47" s="11">
@@ -3102,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>719.02</v>
       </c>
     </row>

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Х-КПНв.2-500-20 (EURO)</t>
+  </si>
+  <si>
+    <t>Х-КПНн-500-35 (AMBER PIWO)</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1001,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,14 +1282,16 @@
       <c r="M9" s="8">
         <v>320</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="8">
+        <v>15</v>
+      </c>
       <c r="O9" s="8">
         <f t="shared" si="3"/>
         <v>647.36</v>
       </c>
       <c r="P9" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>30.344999999999999</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" si="4"/>
@@ -1333,14 +1338,16 @@
       <c r="M10" s="8">
         <v>345</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="8">
+        <v>15</v>
+      </c>
       <c r="O10" s="8">
         <f t="shared" si="3"/>
         <v>656.88</v>
       </c>
       <c r="P10" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>28.56</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" si="4"/>
@@ -1427,14 +1434,16 @@
       <c r="M12" s="8">
         <v>345</v>
       </c>
-      <c r="N12" s="8"/>
+      <c r="N12" s="8">
+        <v>10</v>
+      </c>
       <c r="O12" s="8">
         <f t="shared" si="3"/>
         <v>706.56</v>
       </c>
       <c r="P12" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>20.48</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" si="4"/>
@@ -1699,14 +1708,16 @@
       <c r="M17" s="8">
         <v>355</v>
       </c>
-      <c r="N17" s="8"/>
+      <c r="N17" s="8">
+        <v>15</v>
+      </c>
       <c r="O17" s="8">
         <f t="shared" si="3"/>
         <v>772.48</v>
       </c>
       <c r="P17" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>32.64</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="6"/>
@@ -2403,32 +2414,42 @@
         <f t="shared" si="0"/>
         <v>2056</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="F32" s="8">
+        <v>17</v>
+      </c>
+      <c r="G32" s="8">
+        <v>16</v>
+      </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="K32" s="8">
+        <v>7</v>
+      </c>
       <c r="L32" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+        <v>1904</v>
+      </c>
+      <c r="M32" s="8">
+        <v>350</v>
+      </c>
+      <c r="N32" s="8">
+        <v>10</v>
+      </c>
       <c r="O32" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>666.4</v>
       </c>
       <c r="P32" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>19.04</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>700.4</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2804,39 +2825,59 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="B41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="8">
+        <v>246.5</v>
+      </c>
+      <c r="D41" s="8">
+        <v>8</v>
+      </c>
       <c r="E41" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+        <v>2144</v>
+      </c>
+      <c r="F41" s="8">
+        <v>17</v>
+      </c>
+      <c r="G41" s="8">
+        <v>8</v>
+      </c>
+      <c r="H41" s="8">
+        <v>16</v>
+      </c>
+      <c r="I41" s="8">
+        <v>8</v>
+      </c>
       <c r="J41" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="K41" s="8">
+        <v>8</v>
+      </c>
       <c r="L41" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+        <v>2112</v>
+      </c>
+      <c r="M41" s="8">
+        <v>340</v>
+      </c>
+      <c r="N41" s="8">
+        <v>15</v>
+      </c>
       <c r="O41" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>718.08</v>
       </c>
       <c r="P41" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>31.68</v>
       </c>
       <c r="Q41" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>752.08</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -3115,14 +3156,16 @@
       <c r="M47" s="8">
         <v>420</v>
       </c>
-      <c r="N47" s="8"/>
+      <c r="N47" s="8">
+        <v>15</v>
+      </c>
       <c r="O47" s="8">
         <f t="shared" si="3"/>
         <v>685.02</v>
       </c>
       <c r="P47" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>24.465</v>
       </c>
       <c r="Q47" s="9">
         <f t="shared" si="6"/>

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Х-КПНн-500-35 (AMBER PIWO)</t>
+  </si>
+  <si>
+    <t>Х-КПНн-330-25 (LIDA)</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1004,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,39 +2364,55 @@
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="8">
+        <v>234.2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>8</v>
+      </c>
       <c r="E31" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+        <v>2046</v>
+      </c>
+      <c r="F31" s="8">
+        <v>19</v>
+      </c>
+      <c r="G31" s="8">
+        <v>18</v>
+      </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="8"/>
+        <v>342</v>
+      </c>
+      <c r="K31" s="8">
+        <v>8</v>
+      </c>
       <c r="L31" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
+        <v>2736</v>
+      </c>
+      <c r="M31" s="8">
+        <v>260</v>
+      </c>
+      <c r="N31" s="8">
+        <v>15</v>
+      </c>
       <c r="O31" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>711.36</v>
       </c>
       <c r="P31" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>41.04</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>745.36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Х-К-700-41 (GRAPE)</t>
   </si>
   <si>
-    <t>Х-В-700-37 (GRAPE twist)</t>
-  </si>
-  <si>
     <t>Х-КПНв.3-440-2 (Kof)</t>
   </si>
   <si>
@@ -204,6 +201,12 @@
   </si>
   <si>
     <t>Х-КПНн-330-25 (LIDA)</t>
+  </si>
+  <si>
+    <t>Х-В-28-1-700-37 (GRAPE twist)</t>
+  </si>
+  <si>
+    <t>Х-КПНн-500-34 (Alivaria 1864)</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1007,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,13 +1084,13 @@
         <v>14</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>15</v>
@@ -1134,13 +1137,13 @@
         <v>33</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>35</v>
@@ -1191,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="8">
         <v>221.7</v>
@@ -1403,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="8">
         <v>247</v>
@@ -1513,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8">
         <v>260</v>
@@ -1569,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="8">
         <v>282</v>
@@ -1677,7 +1680,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="8">
         <v>264.5</v>
@@ -1733,7 +1736,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="8">
         <v>270</v>
@@ -2127,7 +2130,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="8">
         <v>228</v>
@@ -2365,7 +2368,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="8">
         <v>234.2</v>
@@ -2804,39 +2807,55 @@
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="B40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="8">
+        <v>257.5</v>
+      </c>
+      <c r="D40" s="8">
+        <v>7</v>
+      </c>
       <c r="E40" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+        <v>1972</v>
+      </c>
+      <c r="F40" s="8">
+        <v>16</v>
+      </c>
+      <c r="G40" s="8">
+        <v>17</v>
+      </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="K40" s="8">
+        <v>7</v>
+      </c>
       <c r="L40" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
+        <v>1904</v>
+      </c>
+      <c r="M40" s="8">
+        <v>340</v>
+      </c>
+      <c r="N40" s="8">
+        <v>15</v>
+      </c>
       <c r="O40" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>647.36</v>
       </c>
       <c r="P40" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>28.56</v>
       </c>
       <c r="Q40" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>681.36</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -2845,7 +2864,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="8">
         <v>246.5</v>
@@ -2905,7 +2924,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="8">
         <v>262.5</v>
@@ -2959,7 +2978,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C43" s="8">
         <v>281</v>

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -1007,10 +1007,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
+      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,19 +2689,23 @@
         <f t="shared" si="2"/>
         <v>1848</v>
       </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="M37" s="8">
+        <v>340</v>
+      </c>
+      <c r="N37" s="8">
+        <v>10</v>
+      </c>
       <c r="O37" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>628.32000000000005</v>
       </c>
       <c r="P37" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>18.48</v>
       </c>
       <c r="Q37" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>662.32</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -1007,10 +1007,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,11 +1200,11 @@
         <v>221.7</v>
       </c>
       <c r="D8" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>1721</v>
+        <v>1946</v>
       </c>
       <c r="F8" s="8">
         <v>17</v>
@@ -1223,11 +1223,11 @@
         <v>264</v>
       </c>
       <c r="K8" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="2"/>
-        <v>1848</v>
+        <v>2112</v>
       </c>
       <c r="M8" s="8">
         <v>320</v>
@@ -1237,15 +1237,15 @@
       </c>
       <c r="O8" s="8">
         <f t="shared" si="3"/>
-        <v>591.36</v>
+        <v>675.84</v>
       </c>
       <c r="P8" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>27.72</v>
+        <v>31.68</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="4"/>
-        <v>625.36</v>
+        <v>709.84</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -1007,10 +1007,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,14 +1496,16 @@
       <c r="M13" s="8">
         <v>345</v>
       </c>
-      <c r="N13" s="8"/>
+      <c r="N13" s="8">
+        <v>10</v>
+      </c>
       <c r="O13" s="8">
         <f t="shared" si="3"/>
         <v>750.72</v>
       </c>
       <c r="P13" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>21.76</v>
       </c>
       <c r="Q13" s="9">
         <f>O13+34</f>
@@ -1864,14 +1866,16 @@
       <c r="M20" s="8">
         <v>340</v>
       </c>
-      <c r="N20" s="8"/>
+      <c r="N20" s="8">
+        <v>15</v>
+      </c>
       <c r="O20" s="8">
         <f t="shared" si="3"/>
         <v>687.82</v>
       </c>
       <c r="P20" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>30.344999999999999</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="6"/>
@@ -2070,14 +2074,16 @@
       <c r="M24" s="8">
         <v>340</v>
       </c>
-      <c r="N24" s="8"/>
+      <c r="N24" s="8">
+        <v>15</v>
+      </c>
       <c r="O24" s="8">
         <f t="shared" si="3"/>
         <v>739.84</v>
       </c>
       <c r="P24" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>32.64</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="6"/>

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -1007,10 +1007,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Высота паллета.xlsx
+++ b/Высота паллета.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Рассчетная высота паллета</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Х-КПНн-500-34 (Alivaria 1864)</t>
+  </si>
+  <si>
+    <t>X-ВКП-500-17 (NRW twist)</t>
+  </si>
+  <si>
+    <t>Х-КПНн-500-13 (Речицкое)</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1013,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47:XFD47"/>
+      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,39 +1797,59 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="8">
+        <v>250</v>
+      </c>
+      <c r="D19" s="8">
+        <v>7</v>
+      </c>
       <c r="E19" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+        <v>1919</v>
+      </c>
+      <c r="F19" s="8">
+        <v>17</v>
+      </c>
+      <c r="G19" s="8">
+        <v>8</v>
+      </c>
+      <c r="H19" s="8">
+        <v>16</v>
+      </c>
+      <c r="I19" s="8">
+        <v>8</v>
+      </c>
       <c r="J19" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="K19" s="8">
+        <v>7</v>
+      </c>
       <c r="L19" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+        <v>1848</v>
+      </c>
+      <c r="M19" s="8">
+        <v>340</v>
+      </c>
+      <c r="N19" s="8">
+        <v>10</v>
+      </c>
       <c r="O19" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>628.32000000000005</v>
       </c>
       <c r="P19" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>18.48</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>662.32</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1999,39 +2025,55 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="8">
+        <v>260</v>
+      </c>
+      <c r="D23" s="8">
+        <v>8</v>
+      </c>
       <c r="E23" s="8">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+        <v>2252</v>
+      </c>
+      <c r="F23" s="8">
+        <v>17</v>
+      </c>
+      <c r="G23" s="8">
+        <v>17</v>
+      </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="8"/>
+        <v>289</v>
+      </c>
+      <c r="K23" s="8">
+        <v>8</v>
+      </c>
       <c r="L23" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+        <v>2312</v>
+      </c>
+      <c r="M23" s="8">
+        <v>340</v>
+      </c>
+      <c r="N23" s="8">
+        <v>15</v>
+      </c>
       <c r="O23" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>786.08</v>
       </c>
       <c r="P23" s="11">
         <f>Таблица2[[#This Row],[Столбец15]]*Таблица2[[#This Row],[Столбец172]]/1000</f>
-        <v>0</v>
+        <v>34.68</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>820.08</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
